--- a/biology/Médecine/Triphala/Triphala.xlsx
+++ b/biology/Médecine/Triphala/Triphala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Triphala (sanskrit: triphalā [t̪ripʰəl̪aː], «trois fruits») est un complément alimentaire de la médecine ayurvédique — un rasayana — composé d’Amalaki (Phyllanthus emblica), de Bibhitaki (Terminalia bellirica) et d’Haritaki (Terminalia chebula)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Triphala (sanskrit: triphalā [t̪ripʰəl̪aː], «trois fruits») est un complément alimentaire de la médecine ayurvédique — un rasayana — composé d’Amalaki (Phyllanthus emblica), de Bibhitaki (Terminalia bellirica) et d’Haritaki (Terminalia chebula).
 </t>
         </is>
       </c>
@@ -511,17 +523,19 @@
           <t>Médecine ayurvédique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le triphala est un pilier de la médecine traditionnelle ayurvédique. Puissant détoxifiant[2], il serait utile pour :
-la stimulation du système immunitaire[3] ;
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le triphala est un pilier de la médecine traditionnelle ayurvédique. Puissant détoxifiant, il serait utile pour :
+la stimulation du système immunitaire ;
 l’amélioration de la digestion ;
-le soulagement de la constipation[4] ;
+le soulagement de la constipation ;
 le nettoyage du tractus gastro-intestinal ;
 la régulation des gaz intestinaux (il est carminatif) ;
-le traitement du diabète[5] ;
+le traitement du diabète ;
 les maladies oculaires ;
-les traitements endodontiques en tant qu’irrigant canalaire [6].</t>
+les traitements endodontiques en tant qu’irrigant canalaire .</t>
         </is>
       </c>
     </row>
@@ -549,9 +563,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La formule consiste en trois parts de fruits[7] : l’Amalaki (Phyllanthus emblica), le Bibhitaki (Terminalia bellirica) et l’Haritaki (Terminalia chebula)[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La formule consiste en trois parts de fruits : l’Amalaki (Phyllanthus emblica), le Bibhitaki (Terminalia bellirica) et l’Haritaki (Terminalia chebula).
 </t>
         </is>
       </c>
